--- a/biology/Botanique/Leucaena/Leucaena.xlsx
+++ b/biology/Botanique/Leucaena/Leucaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Leucaena est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique, qui comprend 25 espèces acceptées[2]. 
-Ce sont des arbres et arbustes aux feuilles composées bipennées et aux inflorescences en forme de têtes arrondies groupant de nombreuses fleurs sessiles[3].
-Certaines espèces du genre sont utilisées à diverses fins : fourrage, engrais vert, bois d'œuvre, bois de chauffage, charbon de bois, conservation des sols[3]. Les graines peuvent être utilisées comme des perles (perles de jumbie). Des extraits de ces graines sont utilisés comme anthelminthiques à Sumatra (Indonésie).
-Les gousses vertes et les graines de Leucaena leucocephala sont comestibles. Au Mexique, les graines, appelées guaje, sont consommées avec du sel. La consommation des graines de cette espèce et d'autres espèces de Leucaena peut entrainer perte de croissance, alopécie, cataracte, goître et infertilité chez les non-ruminants, du fait de leur teneur élevée en mimosine (acide aminé non-protéique)[4].
+Leucaena est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique, qui comprend 25 espèces acceptées. 
+Ce sont des arbres et arbustes aux feuilles composées bipennées et aux inflorescences en forme de têtes arrondies groupant de nombreuses fleurs sessiles.
+Certaines espèces du genre sont utilisées à diverses fins : fourrage, engrais vert, bois d'œuvre, bois de chauffage, charbon de bois, conservation des sols. Les graines peuvent être utilisées comme des perles (perles de jumbie). Des extraits de ces graines sont utilisés comme anthelminthiques à Sumatra (Indonésie).
+Les gousses vertes et les graines de Leucaena leucocephala sont comestibles. Au Mexique, les graines, appelées guaje, sont consommées avec du sel. La consommation des graines de cette espèce et d'autres espèces de Leucaena peut entrainer perte de croissance, alopécie, cataracte, goître et infertilité chez les non-ruminants, du fait de leur teneur élevée en mimosine (acide aminé non-protéique).
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (21 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (21 décembre 2018) :
 Leucaena collinsii Britton &amp; Rose
 Leucaena colombiana Britton &amp; Rose ex Britton &amp; Killip
 Leucaena confertiflora Zarate
